--- a/Normalización Delicias Artesanales.xlsx
+++ b/Normalización Delicias Artesanales.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="168" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F6F9ABE-6806-4564-99D7-A4269BD332EC}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udlaec-my.sharepoint.com/personal/gabriel_erazo_merino_udla_edu_ec/Documents/Documents/UDLA/PERÍODO 5/BASE DE DATOS I/PROYECTO INTEGRADOR/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="184" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48943A8-1128-4F9E-BB4B-2CD7CC61F560}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +110,7 @@
     <t>NN</t>
   </si>
   <si>
-    <t>Puesto</t>
+    <t>PuestoDeTrabajo</t>
   </si>
   <si>
     <t>panadero, pastelero, ayudante de cocina, cajero</t>
@@ -187,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,7 +242,18 @@
         <color theme="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -246,366 +262,96 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -622,102 +368,6 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="(Estudiante) Gabriel Francisco Erazo Merino" id="{7485FD8F-0DE5-4B3C-879F-C1A33726B1A1}" userId="S::gabriel.erazo.merino@udla.edu.ec::8056168d-d53b-4892-ba92-9f7dcbc97dfc" providerId="AD"/>
 </personList>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FBF5D93E-3CAC-42DC-A85F-6F08AFD6899B}" name="Table3" displayName="Table3" ref="A2:C10" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="A2:C10" xr:uid="{FBF5D93E-3CAC-42DC-A85F-6F08AFD6899B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{92EF03CC-96C0-4B82-889D-F81975D2F53B}" name="Características" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{9BFCB5AE-7DBC-411C-BE6D-1BF40807A838}" name="Atributos" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{41C4D640-CBB3-47EE-998F-FE3DDFB41C95}" name="Dominio" dataDxfId="42"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3B59AE40-AC24-4151-A790-6239D727C0E5}" name="Table4" displayName="Table4" ref="A18:C21" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
-  <autoFilter ref="A18:C21" xr:uid="{3B59AE40-AC24-4151-A790-6239D727C0E5}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0C81BD37-06B9-4781-B305-D407173CD813}" name="Características" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{2EE4A78F-D6DA-4507-AD06-778A5247B458}" name="Atributos" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{A3508C18-E5F6-4C6C-9859-9CEEF09DBF10}" name="Dominio" dataDxfId="36"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69943912-818D-428D-B90E-8EB9F7363B69}" name="Table43" displayName="Table43" ref="A30:C31" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="A30:C31" xr:uid="{69943912-818D-428D-B90E-8EB9F7363B69}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F87B6194-CF11-4BB1-B917-CAE983F0E70E}" name="Características" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{2CCA81CD-EA6A-4A02-83F6-169A07AC6DC3}" name="Atributos" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{6DA316F4-DC14-4007-B137-BF1F957E3407}" name="Dominio" dataDxfId="30"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{50E53F57-0FD2-4332-BE24-AE7E34C22596}" name="Table46" displayName="Table46" ref="A24:C27" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="A24:C27" xr:uid="{50E53F57-0FD2-4332-BE24-AE7E34C22596}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{221C4075-CF56-4C29-83CC-A64050EEDC40}" name="Características" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{DB9291FF-6C70-4198-BD3B-31F8DF0F8F8A}" name="Atributos" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{E0805A01-7FE8-4BA2-88E4-8CFC6EE8F634}" name="Dominio" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E36583F8-02A0-487C-AD5A-76DE9234BB60}" name="Table437" displayName="Table437" ref="A40:C42" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="A40:C42" xr:uid="{E36583F8-02A0-487C-AD5A-76DE9234BB60}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{77846537-6627-4F5C-9752-61534A73B838}" name="Características" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{09B929F2-672B-43AA-8E2C-7CFED39B1051}" name="Atributos" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{BF125422-CD31-4CFB-B6B7-CC333EEAB1E1}" name="Dominio" dataDxfId="18"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{59D09A2E-522D-4EC2-9026-EF6484989E4B}" name="Table468" displayName="Table468" ref="A34:C37" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A34:C37" xr:uid="{59D09A2E-522D-4EC2-9026-EF6484989E4B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E4BFBEC1-1836-4D6D-B5CA-E38386F98126}" name="Características" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{48B79C49-C538-484E-A229-22F34F336A20}" name="Atributos" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{8B5385A6-8ECA-4798-9E50-5A8696E497A4}" name="Dominio" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{149DD602-F854-4233-B54E-8EE94CCF25FE}" name="Table410" displayName="Table410" ref="A13:C15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A13:C15" xr:uid="{149DD602-F854-4233-B54E-8EE94CCF25FE}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{875F06AD-5211-4629-91DE-AF1C55C83842}" name="Características" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{EFB4A26C-5E45-45C5-A44E-730812F66CAA}" name="Atributos" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{5CCC748A-DC18-4714-86F4-87CB3100B8E4}" name="Dominio" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D7A33C5-05AA-45DF-8EB7-8FA56AB65650}" name="Table43711" displayName="Table43711" ref="A45:C47" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A45:C47" xr:uid="{1D7A33C5-05AA-45DF-8EB7-8FA56AB65650}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{22FA559D-F4D5-4A0F-9DBD-40905F0C9652}" name="Características" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F4F2232A-B536-4955-8CC4-DA2948BCEE02}" name="Atributos" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{331128E7-1A69-42DA-84EA-3191E645C5FD}" name="Dominio" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,360 +689,383 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="1"/>
+    <col min="5" max="5" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="77.25" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="7" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
+      <c r="C21" s="12"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="7" t="s">
+      <c r="C27" s="12"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="7" t="s">
+      <c r="C31" s="12"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="7" t="s">
+      <c r="C37" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="7" t="s">
+      <c r="C42" s="12"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="4" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C47" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1407,15 +1080,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <tableParts count="8">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
-  </tableParts>
 </worksheet>
 </file>